--- a/input/dynamic_data/season_17/forecasting_method/average/improved/forecast_point_GW27.xlsx
+++ b/input/dynamic_data/season_17/forecasting_method/average/improved/forecast_point_GW27.xlsx
@@ -3941,37 +3941,37 @@
         <v>101.0</v>
       </c>
       <c r="B102" t="n">
-        <v>0.5936391781765087</v>
+        <v>0.0</v>
       </c>
       <c r="C102" t="n">
-        <v>0.48545145203374296</v>
+        <v>0.0</v>
       </c>
       <c r="D102" t="n">
-        <v>0.5918839511830514</v>
+        <v>0.0</v>
       </c>
       <c r="E102" t="n">
-        <v>0.4965333333333333</v>
+        <v>0.0</v>
       </c>
       <c r="F102" t="n">
-        <v>0.565270648043731</v>
+        <v>0.0</v>
       </c>
       <c r="G102" t="n">
-        <v>0.4931571653734744</v>
+        <v>0.0</v>
       </c>
       <c r="H102" t="n">
-        <v>0.5975396268621215</v>
+        <v>0.0</v>
       </c>
       <c r="I102" t="n">
-        <v>0.4963284554505139</v>
+        <v>0.0</v>
       </c>
       <c r="J102" t="n">
-        <v>0.4909221150973198</v>
+        <v>0.0</v>
       </c>
       <c r="K102" t="n">
-        <v>0.5749818178263514</v>
+        <v>0.0</v>
       </c>
       <c r="L102" t="n">
-        <v>0.5746226721514217</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="103">
@@ -4625,37 +4625,37 @@
         <v>119.0</v>
       </c>
       <c r="B120" t="n">
-        <v>0.7314292242585709</v>
+        <v>0.0</v>
       </c>
       <c r="C120" t="n">
-        <v>0.7721636089959439</v>
+        <v>0.0</v>
       </c>
       <c r="D120" t="n">
-        <v>0.742892790346974</v>
+        <v>0.0</v>
       </c>
       <c r="E120" t="n">
-        <v>0.6766526128671944</v>
+        <v>0.0</v>
       </c>
       <c r="F120" t="n">
-        <v>0.7487625864466771</v>
+        <v>0.0</v>
       </c>
       <c r="G120" t="n">
-        <v>0.7580659851113981</v>
+        <v>0.0</v>
       </c>
       <c r="H120" t="n">
-        <v>0.6141410795333824</v>
+        <v>0.0</v>
       </c>
       <c r="I120" t="n">
-        <v>0.6649206021002024</v>
+        <v>0.0</v>
       </c>
       <c r="J120" t="n">
-        <v>0.7623488448283771</v>
+        <v>0.0</v>
       </c>
       <c r="K120" t="n">
-        <v>0.6873898760262617</v>
+        <v>0.0</v>
       </c>
       <c r="L120" t="n">
-        <v>0.7227425161960619</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="121">
@@ -9337,37 +9337,37 @@
         <v>243.0</v>
       </c>
       <c r="B244" t="n">
-        <v>1.5391752501132103</v>
+        <v>0.0</v>
       </c>
       <c r="C244" t="n">
-        <v>1.3384465925443743</v>
+        <v>0.0</v>
       </c>
       <c r="D244" t="n">
-        <v>1.5139090916731082</v>
+        <v>0.0</v>
       </c>
       <c r="E244" t="n">
-        <v>1.460850783431445</v>
+        <v>0.0</v>
       </c>
       <c r="F244" t="n">
-        <v>1.5732936748605462</v>
+        <v>0.0</v>
       </c>
       <c r="G244" t="n">
-        <v>1.2829632750985356</v>
+        <v>0.0</v>
       </c>
       <c r="H244" t="n">
-        <v>1.5839501219576972</v>
+        <v>0.0</v>
       </c>
       <c r="I244" t="n">
-        <v>1.4627096669377682</v>
+        <v>0.0</v>
       </c>
       <c r="J244" t="n">
-        <v>1.566463359633447</v>
+        <v>0.0</v>
       </c>
       <c r="K244" t="n">
-        <v>1.6881646488007203</v>
+        <v>0.0</v>
       </c>
       <c r="L244" t="n">
-        <v>1.6081279094843208</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="245">
@@ -9603,37 +9603,37 @@
         <v>250.0</v>
       </c>
       <c r="B251" t="n">
-        <v>0.5231552915539401</v>
+        <v>0.0</v>
       </c>
       <c r="C251" t="n">
-        <v>0.4549289740076234</v>
+        <v>0.0</v>
       </c>
       <c r="D251" t="n">
-        <v>0.5145674946255478</v>
+        <v>0.0</v>
       </c>
       <c r="E251" t="n">
-        <v>0.4965333333333334</v>
+        <v>0.0</v>
       </c>
       <c r="F251" t="n">
-        <v>0.5347519141248532</v>
+        <v>0.0</v>
       </c>
       <c r="G251" t="n">
-        <v>0.43607056843449415</v>
+        <v>0.0</v>
       </c>
       <c r="H251" t="n">
-        <v>0.5383739686554397</v>
+        <v>0.0</v>
       </c>
       <c r="I251" t="n">
-        <v>0.497165155305941</v>
+        <v>0.0</v>
       </c>
       <c r="J251" t="n">
-        <v>0.5324303360239998</v>
+        <v>0.0</v>
       </c>
       <c r="K251" t="n">
-        <v>0.5737957837935844</v>
+        <v>0.0</v>
       </c>
       <c r="L251" t="n">
-        <v>0.5465918356473172</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="252">
@@ -10287,37 +10287,37 @@
         <v>268.0</v>
       </c>
       <c r="B269" t="n">
-        <v>0.41343600543971765</v>
+        <v>0.0</v>
       </c>
       <c r="C269" t="n">
-        <v>0.4144861161805912</v>
+        <v>0.0</v>
       </c>
       <c r="D269" t="n">
-        <v>0.40772321684346313</v>
+        <v>0.0</v>
       </c>
       <c r="E269" t="n">
-        <v>0.4009333333333333</v>
+        <v>0.0</v>
       </c>
       <c r="F269" t="n">
-        <v>0.4331586503852869</v>
+        <v>0.0</v>
       </c>
       <c r="G269" t="n">
-        <v>0.4136959836881397</v>
+        <v>0.0</v>
       </c>
       <c r="H269" t="n">
-        <v>0.4109521301020087</v>
+        <v>0.0</v>
       </c>
       <c r="I269" t="n">
-        <v>0.4004809503060647</v>
+        <v>0.0</v>
       </c>
       <c r="J269" t="n">
-        <v>0.42271898606111447</v>
+        <v>0.0</v>
       </c>
       <c r="K269" t="n">
-        <v>0.41444182991735096</v>
+        <v>0.0</v>
       </c>
       <c r="L269" t="n">
-        <v>0.37206094360260655</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="270">
@@ -12035,37 +12035,37 @@
         <v>314.0</v>
       </c>
       <c r="B315" t="n">
-        <v>0.29076204645380016</v>
+        <v>0.0</v>
       </c>
       <c r="C315" t="n">
-        <v>0.23777213977162923</v>
+        <v>0.0</v>
       </c>
       <c r="D315" t="n">
-        <v>0.28990234343659654</v>
+        <v>0.0</v>
       </c>
       <c r="E315" t="n">
-        <v>0.2432</v>
+        <v>0.0</v>
       </c>
       <c r="F315" t="n">
-        <v>0.27686725618468455</v>
+        <v>0.0</v>
       </c>
       <c r="G315" t="n">
-        <v>0.2415463667135385</v>
+        <v>0.0</v>
       </c>
       <c r="H315" t="n">
-        <v>0.2926724702998146</v>
+        <v>0.0</v>
       </c>
       <c r="I315" t="n">
-        <v>0.2430996516492313</v>
+        <v>0.0</v>
       </c>
       <c r="J315" t="n">
-        <v>0.24045164821093215</v>
+        <v>0.0</v>
       </c>
       <c r="K315" t="n">
-        <v>0.28162374750678437</v>
+        <v>0.0</v>
       </c>
       <c r="L315" t="n">
-        <v>0.2814478394211045</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="316">
@@ -12453,37 +12453,37 @@
         <v>325.0</v>
       </c>
       <c r="B326" t="n">
-        <v>1.220201248945136</v>
+        <v>0.0</v>
       </c>
       <c r="C326" t="n">
-        <v>1.2398218653343829</v>
+        <v>0.0</v>
       </c>
       <c r="D326" t="n">
-        <v>1.2126670188345479</v>
+        <v>0.0</v>
       </c>
       <c r="E326" t="n">
-        <v>1.2460177401400343</v>
+        <v>0.0</v>
       </c>
       <c r="F326" t="n">
-        <v>1.1761958303352218</v>
+        <v>0.0</v>
       </c>
       <c r="G326" t="n">
-        <v>1.1064190032739463</v>
+        <v>0.0</v>
       </c>
       <c r="H326" t="n">
-        <v>1.2343202003685263</v>
+        <v>0.0</v>
       </c>
       <c r="I326" t="n">
-        <v>1.252830647699415</v>
+        <v>0.0</v>
       </c>
       <c r="J326" t="n">
-        <v>1.1928290117631315</v>
+        <v>0.0</v>
       </c>
       <c r="K326" t="n">
-        <v>1.2564707481270552</v>
+        <v>0.0</v>
       </c>
       <c r="L326" t="n">
-        <v>1.3215585823816425</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="327">
@@ -12491,37 +12491,37 @@
         <v>326.0</v>
       </c>
       <c r="B327" t="n">
-        <v>0.39510628197530057</v>
+        <v>0.0</v>
       </c>
       <c r="C327" t="n">
-        <v>0.4014595198516925</v>
+        <v>0.0</v>
       </c>
       <c r="D327" t="n">
-        <v>0.3926666666666666</v>
+        <v>0.0</v>
       </c>
       <c r="E327" t="n">
-        <v>0.4034657700994788</v>
+        <v>0.0</v>
       </c>
       <c r="F327" t="n">
-        <v>0.3808571428691402</v>
+        <v>0.0</v>
       </c>
       <c r="G327" t="n">
-        <v>0.3099348014198883</v>
+        <v>0.0</v>
       </c>
       <c r="H327" t="n">
-        <v>0.3462982830561705</v>
+        <v>0.0</v>
       </c>
       <c r="I327" t="n">
-        <v>0.35746919537771027</v>
+        <v>0.0</v>
       </c>
       <c r="J327" t="n">
-        <v>0.3061371094476085</v>
+        <v>0.0</v>
       </c>
       <c r="K327" t="n">
-        <v>0.3637901779320521</v>
+        <v>0.0</v>
       </c>
       <c r="L327" t="n">
-        <v>0.3620762077860435</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="328">
@@ -13365,37 +13365,37 @@
         <v>349.0</v>
       </c>
       <c r="B350" t="n">
-        <v>0.7811645357607121</v>
+        <v>0.0</v>
       </c>
       <c r="C350" t="n">
-        <v>0.8246687541970529</v>
+        <v>0.0</v>
       </c>
       <c r="D350" t="n">
-        <v>0.7934075949448552</v>
+        <v>0.0</v>
       </c>
       <c r="E350" t="n">
-        <v>0.7226632552691318</v>
+        <v>0.0</v>
       </c>
       <c r="F350" t="n">
-        <v>0.7996765221262686</v>
+        <v>0.0</v>
       </c>
       <c r="G350" t="n">
-        <v>0.8096125280416604</v>
+        <v>0.0</v>
       </c>
       <c r="H350" t="n">
-        <v>0.6559010979792081</v>
+        <v>0.0</v>
       </c>
       <c r="I350" t="n">
-        <v>0.7101334978566811</v>
+        <v>0.0</v>
       </c>
       <c r="J350" t="n">
-        <v>0.8141866112360167</v>
+        <v>0.0</v>
       </c>
       <c r="K350" t="n">
-        <v>0.7341306247873455</v>
+        <v>0.0</v>
       </c>
       <c r="L350" t="n">
-        <v>0.771887153826982</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="351">
@@ -13479,37 +13479,37 @@
         <v>352.0</v>
       </c>
       <c r="B353" t="n">
-        <v>1.5264690127768874</v>
+        <v>0.0</v>
       </c>
       <c r="C353" t="n">
-        <v>1.6114803494775252</v>
+        <v>0.0</v>
       </c>
       <c r="D353" t="n">
-        <v>1.5503931025308963</v>
+        <v>0.0</v>
       </c>
       <c r="E353" t="n">
-        <v>1.4121520055522776</v>
+        <v>0.0</v>
       </c>
       <c r="F353" t="n">
-        <v>1.5626431761680253</v>
+        <v>0.0</v>
       </c>
       <c r="G353" t="n">
-        <v>1.5820590667343366</v>
+        <v>0.0</v>
       </c>
       <c r="H353" t="n">
-        <v>1.281692467690689</v>
+        <v>0.0</v>
       </c>
       <c r="I353" t="n">
-        <v>1.387667680481002</v>
+        <v>0.0</v>
       </c>
       <c r="J353" t="n">
-        <v>1.5909972557309082</v>
+        <v>0.0</v>
       </c>
       <c r="K353" t="n">
-        <v>1.4345603247043615</v>
+        <v>0.0</v>
       </c>
       <c r="L353" t="n">
-        <v>1.5083401354492139</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="354">
@@ -13783,37 +13783,37 @@
         <v>360.0</v>
       </c>
       <c r="B361" t="n">
-        <v>0.793076026002505</v>
+        <v>0.0</v>
       </c>
       <c r="C361" t="n">
-        <v>0.7266737217650125</v>
+        <v>0.0</v>
       </c>
       <c r="D361" t="n">
-        <v>0.7548115880946978</v>
+        <v>0.0</v>
       </c>
       <c r="E361" t="n">
-        <v>0.8101333333333334</v>
+        <v>0.0</v>
       </c>
       <c r="F361" t="n">
-        <v>0.6916533016837101</v>
+        <v>0.0</v>
       </c>
       <c r="G361" t="n">
-        <v>0.7029419291309515</v>
+        <v>0.0</v>
       </c>
       <c r="H361" t="n">
-        <v>0.7854154552216743</v>
+        <v>0.0</v>
       </c>
       <c r="I361" t="n">
-        <v>0.8107514375685475</v>
+        <v>0.0</v>
       </c>
       <c r="J361" t="n">
-        <v>0.6943286436624933</v>
+        <v>0.0</v>
       </c>
       <c r="K361" t="n">
-        <v>0.8250876258584598</v>
+        <v>0.0</v>
       </c>
       <c r="L361" t="n">
-        <v>0.821200287375048</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="362">
@@ -15493,37 +15493,37 @@
         <v>405.0</v>
       </c>
       <c r="B406" t="n">
-        <v>0.749016371878021</v>
+        <v>0.0</v>
       </c>
       <c r="C406" t="n">
-        <v>0.7713762628943603</v>
+        <v>0.0</v>
       </c>
       <c r="D406" t="n">
-        <v>0.7951479906725578</v>
+        <v>0.0</v>
       </c>
       <c r="E406" t="n">
-        <v>0.8101333333333333</v>
+        <v>0.0</v>
       </c>
       <c r="F406" t="n">
-        <v>0.6843203509494497</v>
+        <v>0.0</v>
       </c>
       <c r="G406" t="n">
-        <v>0.8014962076856506</v>
+        <v>0.0</v>
       </c>
       <c r="H406" t="n">
-        <v>0.7969714557704969</v>
+        <v>0.0</v>
       </c>
       <c r="I406" t="n">
-        <v>0.8100062749835205</v>
+        <v>0.0</v>
       </c>
       <c r="J406" t="n">
-        <v>0.7681814978974608</v>
+        <v>0.0</v>
       </c>
       <c r="K406" t="n">
-        <v>0.6797703092119307</v>
+        <v>0.0</v>
       </c>
       <c r="L406" t="n">
-        <v>0.8033804625292148</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="407">
@@ -15835,37 +15835,37 @@
         <v>414.0</v>
       </c>
       <c r="B415" t="n">
-        <v>1.8725409296950526</v>
+        <v>0.0</v>
       </c>
       <c r="C415" t="n">
-        <v>1.9284406572359012</v>
+        <v>0.0</v>
       </c>
       <c r="D415" t="n">
-        <v>1.9878699766813948</v>
+        <v>0.0</v>
       </c>
       <c r="E415" t="n">
-        <v>2.025333333333333</v>
+        <v>0.0</v>
       </c>
       <c r="F415" t="n">
-        <v>1.7108008773736245</v>
+        <v>0.0</v>
       </c>
       <c r="G415" t="n">
-        <v>2.0037405192141264</v>
+        <v>0.0</v>
       </c>
       <c r="H415" t="n">
-        <v>1.9924286394262425</v>
+        <v>0.0</v>
       </c>
       <c r="I415" t="n">
-        <v>2.0250156874588017</v>
+        <v>0.0</v>
       </c>
       <c r="J415" t="n">
-        <v>1.9204537447436523</v>
+        <v>0.0</v>
       </c>
       <c r="K415" t="n">
-        <v>1.6994257730298268</v>
+        <v>0.0</v>
       </c>
       <c r="L415" t="n">
-        <v>2.008451156323037</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="416">
@@ -16025,37 +16025,37 @@
         <v>419.0</v>
       </c>
       <c r="B420" t="n">
-        <v>0.531593734998525</v>
+        <v>0.0</v>
       </c>
       <c r="C420" t="n">
-        <v>0.5589374481544322</v>
+        <v>0.0</v>
       </c>
       <c r="D420" t="n">
-        <v>0.448132445378087</v>
+        <v>0.0</v>
       </c>
       <c r="E420" t="n">
-        <v>0.5198473816944221</v>
+        <v>0.0</v>
       </c>
       <c r="F420" t="n">
-        <v>0.5170715970729353</v>
+        <v>0.0</v>
       </c>
       <c r="G420" t="n">
-        <v>0.503258803037459</v>
+        <v>0.0</v>
       </c>
       <c r="H420" t="n">
-        <v>0.5318852990236846</v>
+        <v>0.0</v>
       </c>
       <c r="I420" t="n">
-        <v>0.5200619678818171</v>
+        <v>0.0</v>
       </c>
       <c r="J420" t="n">
-        <v>0.49183689567639244</v>
+        <v>0.0</v>
       </c>
       <c r="K420" t="n">
-        <v>0.5140804246969024</v>
+        <v>0.0</v>
       </c>
       <c r="L420" t="n">
-        <v>0.5061878137486014</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="421">
@@ -18039,37 +18039,37 @@
         <v>472.0</v>
       </c>
       <c r="B473" t="n">
-        <v>2.6960111053805362</v>
+        <v>0.0</v>
       </c>
       <c r="C473" t="n">
-        <v>2.625762846672415</v>
+        <v>0.0</v>
       </c>
       <c r="D473" t="n">
-        <v>2.479728053720834</v>
+        <v>0.0</v>
       </c>
       <c r="E473" t="n">
-        <v>2.387753676525995</v>
+        <v>0.0</v>
       </c>
       <c r="F473" t="n">
-        <v>2.8299743869648752</v>
+        <v>0.0</v>
       </c>
       <c r="G473" t="n">
-        <v>2.3682707702593664</v>
+        <v>0.0</v>
       </c>
       <c r="H473" t="n">
-        <v>2.774638141958472</v>
+        <v>0.0</v>
       </c>
       <c r="I473" t="n">
-        <v>2.375397035943194</v>
+        <v>0.0</v>
       </c>
       <c r="J473" t="n">
-        <v>2.7440329728430415</v>
+        <v>0.0</v>
       </c>
       <c r="K473" t="n">
-        <v>2.658463595389209</v>
+        <v>0.0</v>
       </c>
       <c r="L473" t="n">
-        <v>2.3037391897116453</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="474">
@@ -19027,37 +19027,37 @@
         <v>498.0</v>
       </c>
       <c r="B499" t="n">
-        <v>0.7649570668112731</v>
+        <v>0.0</v>
       </c>
       <c r="C499" t="n">
-        <v>0.6651966236079878</v>
+        <v>0.0</v>
       </c>
       <c r="D499" t="n">
-        <v>0.7524</v>
+        <v>0.0</v>
       </c>
       <c r="E499" t="n">
-        <v>0.7260304700588671</v>
+        <v>0.0</v>
       </c>
       <c r="F499" t="n">
-        <v>0.7819136350233876</v>
+        <v>0.0</v>
       </c>
       <c r="G499" t="n">
-        <v>0.6376218846254023</v>
+        <v>0.0</v>
       </c>
       <c r="H499" t="n">
-        <v>0.7872097990004698</v>
+        <v>0.0</v>
       </c>
       <c r="I499" t="n">
-        <v>0.726954319421983</v>
+        <v>0.0</v>
       </c>
       <c r="J499" t="n">
-        <v>0.7785190261891214</v>
+        <v>0.0</v>
       </c>
       <c r="K499" t="n">
-        <v>0.8390035364368664</v>
+        <v>0.0</v>
       </c>
       <c r="L499" t="n">
-        <v>0.7992259546831914</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="500">
@@ -19749,37 +19749,37 @@
         <v>517.0</v>
       </c>
       <c r="B518" t="n">
-        <v>0.219865472260348</v>
+        <v>0.0</v>
       </c>
       <c r="C518" t="n">
-        <v>0.25047733773888525</v>
+        <v>0.0</v>
       </c>
       <c r="D518" t="n">
-        <v>0.20907200846762983</v>
+        <v>0.0</v>
       </c>
       <c r="E518" t="n">
-        <v>0.24319999999999997</v>
+        <v>0.0</v>
       </c>
       <c r="F518" t="n">
-        <v>0.25419004096432574</v>
+        <v>0.0</v>
       </c>
       <c r="G518" t="n">
-        <v>0.24868135388019985</v>
+        <v>0.0</v>
       </c>
       <c r="H518" t="n">
-        <v>0.224954602695971</v>
+        <v>0.0</v>
       </c>
       <c r="I518" t="n">
-        <v>0.24301458811783927</v>
+        <v>0.0</v>
       </c>
       <c r="J518" t="n">
-        <v>0.24957391667244413</v>
+        <v>0.0</v>
       </c>
       <c r="K518" t="n">
-        <v>0.22290765603970603</v>
+        <v>0.0</v>
       </c>
       <c r="L518" t="n">
-        <v>0.2191477678938286</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="519">
@@ -20281,37 +20281,37 @@
         <v>531.0</v>
       </c>
       <c r="B532" t="n">
-        <v>1.253094696899763</v>
+        <v>0.0</v>
       </c>
       <c r="C532" t="n">
-        <v>1.2562775067741634</v>
+        <v>0.0</v>
       </c>
       <c r="D532" t="n">
-        <v>1.23577964692761</v>
+        <v>0.0</v>
       </c>
       <c r="E532" t="n">
-        <v>1.2152</v>
+        <v>0.0</v>
       </c>
       <c r="F532" t="n">
-        <v>1.3128726104461275</v>
+        <v>0.0</v>
       </c>
       <c r="G532" t="n">
-        <v>1.2538826722094134</v>
+        <v>0.0</v>
       </c>
       <c r="H532" t="n">
-        <v>1.245566249999903</v>
+        <v>0.0</v>
       </c>
       <c r="I532" t="n">
-        <v>1.2138288596905469</v>
+        <v>0.0</v>
       </c>
       <c r="J532" t="n">
-        <v>1.2812307412573987</v>
+        <v>0.0</v>
       </c>
       <c r="K532" t="n">
-        <v>1.2561432783061979</v>
+        <v>0.0</v>
       </c>
       <c r="L532" t="n">
-        <v>1.1276898703006841</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="533">
@@ -20395,37 +20395,37 @@
         <v>534.0</v>
       </c>
       <c r="B535" t="n">
-        <v>0.8353964645998418</v>
+        <v>0.0</v>
       </c>
       <c r="C535" t="n">
-        <v>0.8375183378494421</v>
+        <v>0.0</v>
       </c>
       <c r="D535" t="n">
-        <v>0.8238530979517399</v>
+        <v>0.0</v>
       </c>
       <c r="E535" t="n">
-        <v>0.8101333333333334</v>
+        <v>0.0</v>
       </c>
       <c r="F535" t="n">
-        <v>0.8752484069640848</v>
+        <v>0.0</v>
       </c>
       <c r="G535" t="n">
-        <v>0.8359217814729422</v>
+        <v>0.0</v>
       </c>
       <c r="H535" t="n">
-        <v>0.8303774999999352</v>
+        <v>0.0</v>
       </c>
       <c r="I535" t="n">
-        <v>0.8092192397936977</v>
+        <v>0.0</v>
       </c>
       <c r="J535" t="n">
-        <v>0.8541538275049324</v>
+        <v>0.0</v>
       </c>
       <c r="K535" t="n">
-        <v>0.8374288522041319</v>
+        <v>0.0</v>
       </c>
       <c r="L535" t="n">
-        <v>0.7517932468671226</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="536">
@@ -21953,37 +21953,37 @@
         <v>575.0</v>
       </c>
       <c r="B576" t="n">
-        <v>0.8225557488052114</v>
+        <v>0.0</v>
       </c>
       <c r="C576" t="n">
-        <v>1.0028438387694014</v>
+        <v>0.0</v>
       </c>
       <c r="D576" t="n">
-        <v>0.9673737729170603</v>
+        <v>0.0</v>
       </c>
       <c r="E576" t="n">
-        <v>1.0014841314872187</v>
+        <v>0.0</v>
       </c>
       <c r="F576" t="n">
-        <v>0.8453209998057045</v>
+        <v>0.0</v>
       </c>
       <c r="G576" t="n">
-        <v>1.034084723638734</v>
+        <v>0.0</v>
       </c>
       <c r="H576" t="n">
-        <v>0.8492212170713648</v>
+        <v>0.0</v>
       </c>
       <c r="I576" t="n">
-        <v>1.0002113961139962</v>
+        <v>0.0</v>
       </c>
       <c r="J576" t="n">
-        <v>0.8634709732666371</v>
+        <v>0.0</v>
       </c>
       <c r="K576" t="n">
-        <v>1.013075976853274</v>
+        <v>0.0</v>
       </c>
       <c r="L576" t="n">
-        <v>1.0049898520170002</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="577">
@@ -22827,37 +22827,37 @@
         <v>598.0</v>
       </c>
       <c r="B599" t="n">
-        <v>1.6483566864917083</v>
+        <v>0.0</v>
       </c>
       <c r="C599" t="n">
-        <v>1.603882828579396</v>
+        <v>0.0</v>
       </c>
       <c r="D599" t="n">
-        <v>1.6664235459996344</v>
+        <v>0.0</v>
       </c>
       <c r="E599" t="n">
-        <v>1.7473554079387221</v>
+        <v>0.0</v>
       </c>
       <c r="F599" t="n">
-        <v>1.416294032987571</v>
+        <v>0.0</v>
       </c>
       <c r="G599" t="n">
-        <v>1.6485459821920951</v>
+        <v>0.0</v>
       </c>
       <c r="H599" t="n">
-        <v>1.3890206984680893</v>
+        <v>0.0</v>
       </c>
       <c r="I599" t="n">
-        <v>1.7036471633514032</v>
+        <v>0.0</v>
       </c>
       <c r="J599" t="n">
-        <v>1.63423367905742</v>
+        <v>0.0</v>
       </c>
       <c r="K599" t="n">
-        <v>1.5863864835700119</v>
+        <v>0.0</v>
       </c>
       <c r="L599" t="n">
-        <v>1.5988171986534834</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="600">
@@ -22979,37 +22979,37 @@
         <v>602.0</v>
       </c>
       <c r="B603" t="n">
-        <v>1.2734467749816898</v>
+        <v>0.0</v>
       </c>
       <c r="C603" t="n">
-        <v>1.2402653766108143</v>
+        <v>0.0</v>
       </c>
       <c r="D603" t="n">
-        <v>1.1712866043245402</v>
+        <v>0.0</v>
       </c>
       <c r="E603" t="n">
-        <v>1.127842987276388</v>
+        <v>0.0</v>
       </c>
       <c r="F603" t="n">
-        <v>1.336723631875594</v>
+        <v>0.0</v>
       </c>
       <c r="G603" t="n">
-        <v>1.1186403381838108</v>
+        <v>0.0</v>
       </c>
       <c r="H603" t="n">
-        <v>1.3105858453500245</v>
+        <v>0.0</v>
       </c>
       <c r="I603" t="n">
-        <v>1.1220063925871557</v>
+        <v>0.0</v>
       </c>
       <c r="J603" t="n">
-        <v>1.2961296534485771</v>
+        <v>0.0</v>
       </c>
       <c r="K603" t="n">
-        <v>1.255711404600009</v>
+        <v>0.0</v>
       </c>
       <c r="L603" t="n">
-        <v>1.0881591829063115</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="604">
